--- a/Test_files/Data/Rec_Tables/Strompreis Volatil Winter.xlsx
+++ b/Test_files/Data/Rec_Tables/Strompreis Volatil Winter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>0.083990937</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Kennfeld</t>
+  </si>
+  <si>
+    <t>__ctt__Preise_Winter</t>
   </si>
 </sst>
 </file>
@@ -1009,11 +1012,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1335,1367 +1339,1370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
